--- a/medicine/Handicap/Mabel_Gardiner_Hubbard/Mabel_Gardiner_Hubbard.xlsx
+++ b/medicine/Handicap/Mabel_Gardiner_Hubbard/Mabel_Gardiner_Hubbard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mabel Gardiner Hubbard, née le 25 novembre 1857 à Cambridge dans le Massachusetts et morte le 3 janvier 1923 à Chevy Chase dans le Maryland, est une femme d'affaires américaine, fille de l'avocat Gardiner Greene Hubbard et épouse d'Alexander Graham Bell.
-Sourde dès l'âge de 5 ans, Bell aurait inventé, d'après la légende, le téléphone pour tenter de régler ses problèmes de surdité[1].
+Sourde dès l'âge de 5 ans, Bell aurait inventé, d'après la légende, le téléphone pour tenter de régler ses problèmes de surdité.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle perd l'audition en 1862 à la suite de la scarlatine. La maladie lui a aussi détruit l'oreille interne, ce qui toute sa vie lui rendra l'équilibre difficile.
 En 1867, sur son inspiration, son père fonde la Clarke Schools for Hearing and Speech, une école pour les sourds. Elle y apprend ainsi à parler et à lire sur les lèvres dans plusieurs langues. Elle devient l'un des premiers enfants sourds à enseigner à lire et à parler, à la fois, sur les lèvres, ce qui lui permet, chose très rare à l'époque, de s'intégrer dans la société.
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Speech-reading, 1894
 Further Contributions to the Study of that Subtitle Art which May Inable One with an Observant Eie to Heare what Any Man Speaks by the Moving of the Lips, 1894
